--- a/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/K-PCA/m1_results_K-PCA.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/K-PCA/m1_results_K-PCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,6 +943,98 @@
         <v>0.9999936563670762</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:41</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9932370474835958</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:41</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9901418096316194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:41</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>30</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9882337531908792</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2023-10-08 10:42:41</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>hatespeech</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>40</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9867270015936512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/K-PCA/m1_results_K-PCA.xlsx
+++ b/Experiments/dimensionality_reduction_metrics/results/other_dr_techniques/K-PCA/m1_results_K-PCA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,6 +1035,236 @@
         <v>0.9867270015936512</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:16:38</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9454018282780285</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9454018282780285</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:58</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9454018282780285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:58</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9456571933548517</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:59</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9455623965112731</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:59</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9454888694856882</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:59</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9458168575092269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:59</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9518562614462791</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:59</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9478176730952024</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-10-08 22:24:59</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Bank</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9600122695046023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
